--- a/backend/uploads/forecasts_for_1_uk.xlsx
+++ b/backend/uploads/forecasts_for_1_uk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>sku</t>
   </si>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +667,7 @@
         <v>46023</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0.6417496</v>
@@ -695,7 +695,7 @@
         <v>46082</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0.6417496</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>0.6417496</v>
+        <v>0.374269</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>0.374269</v>
@@ -734,10 +734,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>0.374269</v>
@@ -745,16 +745,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>0.374269</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -762,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>0.638</v>
@@ -776,10 +776,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>0.638</v>
@@ -787,16 +787,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="D26">
-        <v>0.638</v>
+        <v>0.5340192</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C27">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D27">
         <v>0.5340192</v>
@@ -818,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C28">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D28">
         <v>0.5340192</v>
@@ -832,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="C29">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D29">
         <v>0.5340192</v>
@@ -843,16 +843,16 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="C30">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0.5340192</v>
+        <v>0.8839932</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -860,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -885,16 +885,16 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>0.8839932</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -902,10 +902,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>0.2601</v>
@@ -916,10 +916,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>0.2601</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>0.2601</v>
+        <v>0.5936406</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C37">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>0.5936406</v>
@@ -958,10 +958,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>0.5936406</v>
@@ -972,10 +972,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="2">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="C39">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39">
         <v>0.5936406</v>
@@ -983,16 +983,16 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="C40">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>0.5936406</v>
+        <v>0.988668</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1000,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>0.988668</v>
+        <v>0.3554091</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1042,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1070,10 +1070,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="2">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>0.3554091</v>
@@ -1081,16 +1081,16 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="D47">
-        <v>0.3554091</v>
+        <v>0.9053</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1098,10 +1098,10 @@
         <v>17</v>
       </c>
       <c r="B48" s="2">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="C48">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D48">
         <v>0.9053</v>
@@ -1112,26 +1112,12 @@
         <v>17</v>
       </c>
       <c r="B49" s="2">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="C49">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D49">
-        <v>0.9053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="2">
-        <v>46082</v>
-      </c>
-      <c r="C50">
-        <v>136</v>
-      </c>
-      <c r="D50">
         <v>0.9053</v>
       </c>
     </row>
